--- a/loaded_influencer_data/an22drea/an22drea_video.xlsx
+++ b/loaded_influencer_data/an22drea/an22drea_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,25 +508,339 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>https://www.tiktok.com/@an22drea/video/7489432775632801070</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>335</v>
+      </c>
+      <c r="C2" t="n">
+        <v>51</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>My glowy Friday makeup 💗
+Products used:
+- @mcobeauty us flawless glow
+- @Makeup Revolution skin silk under eye brightener</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>24.47761194029851</v>
+      </c>
+      <c r="I2" t="n">
+        <v>15.22388059701492</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>9.253731343283581</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@an22drea/video/7489083707672759595</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>198</v>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Where are my makeup girlies 💗
+Products used:
+@loréal paris usa Lumi le glow skin tint</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>20.70707070707071</v>
+      </c>
+      <c r="I3" t="n">
+        <v>14.64646464646465</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6.060606060606061</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.5050505050505051</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@an22drea/video/7488456981414481198</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>637</v>
+      </c>
+      <c r="C4" t="n">
+        <v>72</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Rhode lip combo 🤎
+@rhode skin “Lean” and “Toast”
+#lipcombo #rhodeskin #rhodepeptideliptreatment</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>15.38461538461539</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11.30298273155416</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.081632653061225</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.3139717425431711</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@an22drea/video/7488391737245797674</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>310</v>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>How cute is this design 💗 Perfect for spring 🎀
+@ohora USA
+#athomenails #naildesigns #springnails #ohoranail</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8.709677419354838</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.096774193548387</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.612903225806452</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.6451612903225806</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@an22drea/video/7487427068653882670</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>456</v>
+      </c>
+      <c r="C6" t="n">
+        <v>31</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Time to elevate the content! Got myself the Insta360 Flow2 Pro Gimbal ☺️
+@insta360_official
+#phonegimbal</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8.991228070175438</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.798245614035088</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.192982456140351</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.4385964912280702</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@an22drea/video/7487403582136880427</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>470</v>
+      </c>
+      <c r="C7" t="n">
+        <v>58</v>
+      </c>
+      <c r="D7" t="n">
+        <v>23</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Affordable lip combo 🤎
+@NYX Professional Makeup Nude Truffle
+@e.l.f. Cosmetics Honey Talks
+#lipcombo</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>17.23404255319149</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12.34042553191489</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.893617021276595</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.063829787234043</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
           <t>https://www.tiktok.com/@an22drea/video/7486876705739640107</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>141</v>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="B8" t="n">
+        <v>196</v>
+      </c>
+      <c r="C8" t="n">
+        <v>22</v>
+      </c>
+      <c r="D8" t="n">
         <v>7</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>1</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>It’s a good skin day 🤩
 @COSRX Official @COSRX US
@@ -535,52 +849,52 @@
 - All in one cream</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>12.76595744680851</v>
-      </c>
-      <c r="I2" t="n">
-        <v>7.801418439716312</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.964539007092199</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.7092198581560284</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="H8" t="n">
+        <v>14.79591836734694</v>
+      </c>
+      <c r="I8" t="n">
+        <v>11.22448979591837</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.571428571428571</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7486307997963128110</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>354</v>
-      </c>
-      <c r="C3" t="n">
-        <v>55</v>
-      </c>
-      <c r="D3" t="n">
-        <v>27</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="B9" t="n">
+        <v>389</v>
+      </c>
+      <c r="C9" t="n">
+        <v>60</v>
+      </c>
+      <c r="D9" t="n">
+        <v>28</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>3</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Hi besties💋
 @Huda Beauty easy blur foundation
@@ -588,514 +902,516 @@
 @Saie dew bronze</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>23.16384180790961</v>
-      </c>
-      <c r="I3" t="n">
-        <v>15.53672316384181</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>7.627118644067797</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.847457627118644</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="H9" t="n">
+        <v>22.62210796915167</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15.42416452442159</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7.197943444730077</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.7712082262210797</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7485546300360953130</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>410</v>
-      </c>
-      <c r="C4" t="n">
-        <v>61</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="B10" t="n">
+        <v>432</v>
+      </c>
+      <c r="C10" t="n">
+        <v>62</v>
+      </c>
+      <c r="D10" t="n">
         <v>16</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Getting skincare is my fav, thank you so much @COSRX Official @COSRX US 😍🫶🏼
-#COSRX</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>18.78048780487805</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14.8780487804878</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.902439024390244</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.2439024390243902</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Hi besties💋
+@Huda Beauty easy blur foundation
+@Kosas revealer concealer
+@Saie dew bronze</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>18.05555555555555</v>
+      </c>
+      <c r="I10" t="n">
+        <v>14.35185185185185</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.703703703703703</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.2314814814814815</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7485446121460993323</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B11" t="n">
         <v>396</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C11" t="n">
         <v>63</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D11" t="n">
         <v>28</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Used some of my favs &amp; tried new makeup 💗
 @e.l.f. Cosmetics brow lift
 @Iconic London underglow primer</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H11" t="n">
         <v>22.97979797979798</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I11" t="n">
         <v>15.90909090909091</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>7.07070707070707</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L11" t="n">
         <v>0.2525252525252525</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7485374446522535214</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B12" t="n">
         <v>370</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C12" t="n">
         <v>42</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D12" t="n">
         <v>14</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>2</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Just added the @byoma milky toner to my routine 🫶🏼
 @COSRX Official @COSRX US
 @Beauty of Joseon</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H12" t="n">
         <v>15.13513513513514</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I12" t="n">
         <v>11.35135135135135</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.783783783783784</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L12" t="n">
         <v>0.5405405405405406</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7484807434754739499</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B13" t="n">
         <v>365</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C13" t="n">
         <v>47</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D13" t="n">
         <v>18</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>New goodies 🩷
 @Kosas @byoma @mcobeauty us @MCoBeauty @Makeup Revolution</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H13" t="n">
         <v>17.80821917808219</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I13" t="n">
         <v>12.87671232876712</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>4.931506849315069</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7483267635187027243</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B14" t="n">
         <v>296</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C14" t="n">
         <v>41</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D14" t="n">
         <v>11</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>😌🤍
 #relaxing #thingsthatmakemehappy #asthetic #peacefulvibes</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H14" t="n">
         <v>17.56756756756757</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I14" t="n">
         <v>13.85135135135135</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.716216216216216</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7482789772910628142</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B15" t="n">
         <v>432</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C15" t="n">
         <v>27</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D15" t="n">
         <v>11</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>The before and after 💅 My favorite nails yet 💗
 #gelxnails #gelxnailsathome #almondnails #pinknails💅 #nailsathome</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H15" t="n">
         <v>8.796296296296296</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I15" t="n">
         <v>6.25</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>2.546296296296296</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7482450487309045038</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B16" t="n">
         <v>585</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C16" t="n">
         <v>82</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D16" t="n">
         <v>19</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>3</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>I know these products will not disappoint 🫶🏼
 @Huda Beauty foundation &amp; powder
 @Tower 28 Beauty concealer</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H16" t="n">
         <v>17.26495726495726</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I16" t="n">
         <v>14.01709401709402</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.247863247863248</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L16" t="n">
         <v>0.5128205128205128</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7481284562019011882</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B17" t="n">
         <v>604</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C17" t="n">
         <v>94</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D17" t="n">
         <v>35</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>4</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Didn’t have time to film my lip combo but here’s most of my makeup from yesterday 💗
 @mcobeauty us</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H17" t="n">
         <v>21.35761589403974</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I17" t="n">
         <v>15.56291390728477</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>5.794701986754967</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L17" t="n">
         <v>0.6622516556291391</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7480545255885147438</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B18" t="n">
         <v>1088</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C18" t="n">
         <v>98</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D18" t="n">
         <v>19</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>6</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>This is what I currently want from Sephora 😍 What have you been eyeing lately ?
 @Emi Jay I need to get one of their brushes 🙌🏼</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H18" t="n">
         <v>10.75367647058824</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I18" t="n">
         <v>9.007352941176471</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>1.746323529411765</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L18" t="n">
         <v>0.5514705882352942</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7479117536848710958</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B19" t="n">
         <v>339</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C19" t="n">
         <v>47</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D19" t="n">
         <v>13</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>4</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>happy friday 💗☺️
 products used:
@@ -1104,511 +1420,511 @@
 -</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H19" t="n">
         <v>17.69911504424779</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I19" t="n">
         <v>13.86430678466077</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>3.834808259587021</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L19" t="n">
         <v>1.179941002949852</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-08</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7478877820043906350</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B20" t="n">
         <v>354</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C20" t="n">
         <v>28</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D20" t="n">
         <v>3</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="inlineStr">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>Just picked up the Pure &amp; Deep Cleansing Foam from @ma:nyo US at Target! Got my skin cleansed and refreshed ✨</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H20" t="n">
         <v>8.757062146892656</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I20" t="n">
         <v>7.909604519774012</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.847457627118644</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7478389250925284651</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B21" t="n">
         <v>1147</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C21" t="n">
         <v>52</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D21" t="n">
         <v>17</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>1</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Just picked up the Pure &amp; Deep Cleansing Foam from @ma:nyo US at Target! Got my skin cleansed and refreshed ✨</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H21" t="n">
         <v>6.015693112467306</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I21" t="n">
         <v>4.533565823888405</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>1.482127288578901</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L21" t="n">
         <v>0.08718395815170009</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7477639396615965998</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B22" t="n">
         <v>576</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C22" t="n">
         <v>52</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D22" t="n">
         <v>15</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>1</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>love a dewy flush 💗 @Glow Recipe please come out with more shade, I’m so in love 😍
 #glowrecipe</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H22" t="n">
         <v>11.63194444444444</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I22" t="n">
         <v>9.027777777777777</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>2.604166666666667</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L22" t="n">
         <v>0.1736111111111111</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7477618333420883242</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B23" t="n">
         <v>400</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C23" t="n">
         <v>51</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D23" t="n">
         <v>13</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>6</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>love a dewy flush 💗 @Glow Recipe please come out with more shade, I’m so in love 😍
 #glowrecipe</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H23" t="n">
         <v>16</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I23" t="n">
         <v>12.75</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>3.25</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L23" t="n">
         <v>1.5</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7477383049966308654</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B24" t="n">
         <v>517</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C24" t="n">
         <v>34</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D24" t="n">
         <v>13</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>2</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Spring nails have arrived 💐
 Used @dndgel gel polishes
 #nails #nailstransition #springnails #nailsinspo #gelxnails</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H24" t="n">
         <v>9.090909090909092</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I24" t="n">
         <v>6.576402321083171</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>2.514506769825918</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L24" t="n">
         <v>0.3868471953578337</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7477219067884129582</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B25" t="n">
         <v>846</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C25" t="n">
         <v>31</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D25" t="n">
         <v>4</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>1</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Trying the new @loréal paris usa Lumi Le Glow Tint! We love some glowy skin ✨
 #loreal #lumiglow #skintint</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H25" t="n">
         <v>4.137115839243498</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I25" t="n">
         <v>3.664302600472813</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.4728132387706856</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L25" t="n">
         <v>0.1182033096926714</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7476251621639474474</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B26" t="n">
         <v>385</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C26" t="n">
         <v>52</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D26" t="n">
         <v>15</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>2</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>doing my makeup is my favorite part of my morning ✨
 @Maybelline NY foundation
 @tarte cosmetics</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H26" t="n">
         <v>17.4025974025974</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I26" t="n">
         <v>13.50649350649351</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>3.896103896103896</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L26" t="n">
         <v>0.5194805194805194</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/photo/7475789788826701099</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B27" t="n">
         <v>351</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C27" t="n">
         <v>29</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D27" t="n">
         <v>11</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="inlineStr">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>#officelife #officeoutfit #9to5life</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H27" t="n">
         <v>11.3960113960114</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I27" t="n">
         <v>8.262108262108262</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>3.133903133903134</v>
       </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7475413500249115947</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B28" t="n">
         <v>488</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C28" t="n">
         <v>41</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D28" t="n">
         <v>23</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>3</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Actually had time to do my hair today🙌🏼
 @Dae Hair
 #hairtok #hairstyle #hairtutorial #slickback #halfuphalfdown</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H28" t="n">
         <v>13.11475409836066</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I28" t="n">
         <v>8.401639344262295</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>4.713114754098361</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L28" t="n">
         <v>0.6147540983606558</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7475169384386809130</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B29" t="n">
         <v>303</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C29" t="n">
         <v>40</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D29" t="n">
         <v>19</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>3</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Never skipping my nighttime skincare 🫶🏼
 @Vaseline Brand
@@ -1616,307 +1932,307 @@
 @LaRochePosayUS</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H29" t="n">
         <v>19.47194719471947</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I29" t="n">
         <v>13.2013201320132</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>6.270627062706271</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L29" t="n">
         <v>0.9900990099009901</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7475011309302467882</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B30" t="n">
         <v>343</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C30" t="n">
         <v>32</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D30" t="n">
         <v>2</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="inlineStr">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>A little stroll &amp; a little coffee ❤️
 #coffeetiktok #coffeetime #weekendvlog #coffeetok</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H30" t="n">
         <v>9.912536443148689</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I30" t="n">
         <v>9.329446064139942</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.5830903790087464</v>
       </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7474784280665967918</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B31" t="n">
         <v>302</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C31" t="n">
         <v>43</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D31" t="n">
         <v>28</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>3</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>I liked my makeup today 💗
 @Iconic London @revlon @Tower 28 Beauty @tarte cosmetics</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H31" t="n">
         <v>23.50993377483444</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I31" t="n">
         <v>14.23841059602649</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>9.271523178807946</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L31" t="n">
         <v>0.9933774834437087</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7474664712672709930</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B32" t="n">
         <v>360</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C32" t="n">
         <v>31</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D32" t="n">
         <v>7</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>1</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Organizing my nail polishes for my at home nails 💗💅 I love using @dndgel gel polishes ✨
 #nails #nailsathome</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H32" t="n">
         <v>10.55555555555556</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I32" t="n">
         <v>8.611111111111111</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>1.944444444444444</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L32" t="n">
         <v>0.2777777777777778</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7474313420729535790</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B33" t="n">
         <v>439</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C33" t="n">
         <v>33</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D33" t="n">
         <v>11</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>2</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Happy Saturday besties 💚
 #fyp #weekendvibes</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H33" t="n">
         <v>10.02277904328018</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I33" t="n">
         <v>7.517084282460136</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>2.505694760820045</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L33" t="n">
         <v>0.4555808656036446</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-02-23</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7474269846574812458</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B34" t="n">
         <v>426</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C34" t="n">
         <v>27</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D34" t="n">
         <v>7</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>1</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Brb this is what I’ll be doing this weekend 😌
 #coloringbook #coloringmarkers #coloringtok #relaxingvideos</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H34" t="n">
         <v>7.981220657276995</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I34" t="n">
         <v>6.338028169014084</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>1.643192488262911</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L34" t="n">
         <v>0.2347417840375587</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-02-23</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7473910751028104490</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B35" t="n">
         <v>266</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C35" t="n">
         <v>27</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D35" t="n">
         <v>8</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>1</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Happy Friday Friends 💗
 @revlon
@@ -1926,202 +2242,202 @@
 @Rare Beauty</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H35" t="n">
         <v>13.1578947368421</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I35" t="n">
         <v>10.15037593984962</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>3.007518796992481</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L35" t="n">
         <v>0.3759398496240601</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-02-22</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7473688923395329326</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B36" t="n">
         <v>303</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C36" t="n">
         <v>37</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D36" t="n">
         <v>3</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>2</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Stocking my lip combo makeup bag 🩷
 @rhode skin @makeupbymario @NYX Professional Makeup</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H36" t="n">
         <v>13.2013201320132</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I36" t="n">
         <v>12.21122112211221</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.9900990099009901</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L36" t="n">
         <v>0.6600660066006601</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-02-21</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7473661073208429867</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B37" t="n">
         <v>354</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C37" t="n">
         <v>20</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D37" t="n">
         <v>4</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>1</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>New nails 💅💗
 #nails #chromenails #nailsoftiktok #newnails #nudenail #gelnails #nailsathome</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H37" t="n">
         <v>6.779661016949152</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I37" t="n">
         <v>5.649717514124294</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>1.129943502824859</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L37" t="n">
         <v>0.2824858757062147</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-02-21</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7473309095253183790</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B38" t="n">
         <v>299</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C38" t="n">
         <v>27</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D38" t="n">
         <v>14</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="inlineStr">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>Night time skincare 🌙✨
 @Rael @COSRX US @Beauty of Joseon US @LaRochePosayUS
 #skincare</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H38" t="n">
         <v>13.7123745819398</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I38" t="n">
         <v>9.030100334448161</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>4.682274247491638</v>
       </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7472847565138971947</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B39" t="n">
         <v>396</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C39" t="n">
         <v>44</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D39" t="n">
         <v>23</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>3</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Getting ready for work 🫶🏼
 @e.l.f. Cosmetics brows
@@ -2129,52 +2445,52 @@
 @Tower 28 Beauty</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H39" t="n">
         <v>16.91919191919192</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I39" t="n">
         <v>11.11111111111111</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>5.808080808080808</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L39" t="n">
         <v>0.7575757575757576</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7472541886436216106</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B40" t="n">
         <v>2335</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C40" t="n">
         <v>30</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D40" t="n">
         <v>5</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>1</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Got 3 shades of the new Waterism Glow Tint from @TIRTIR Inc. 🩷
 Shades:
@@ -2183,360 +2499,360 @@
 25 Nutty Pink</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H40" t="n">
         <v>1.498929336188437</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I40" t="n">
         <v>1.284796573875803</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.2141327623126338</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L40" t="n">
         <v>0.04282655246252676</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7472486104776871214</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B41" t="n">
         <v>290</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C41" t="n">
         <v>27</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D41" t="n">
         <v>8</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>1</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Quick haul of a few things I got recently 🫶🏼
 @TIRTIR Inc. @Pandora @Ulanzi_Official
 #shoppinghaul</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H41" t="n">
         <v>12.06896551724138</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I41" t="n">
         <v>9.310344827586208</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>2.758620689655173</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L41" t="n">
         <v>0.3448275862068966</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7472374756948413738</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B42" t="n">
         <v>431</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C42" t="n">
         <v>37</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D42" t="n">
         <v>9</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>2</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Haven’t been to Ulta in forever and finally got to see some new products😍
 @Ulta Beauty @Maybelline NY</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H42" t="n">
         <v>10.67285382830626</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I42" t="n">
         <v>8.584686774941995</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>2.088167053364269</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L42" t="n">
         <v>0.4640371229698376</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-02-17</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7471821242442534186</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B43" t="n">
         <v>330</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C43" t="n">
         <v>27</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D43" t="n">
         <v>2</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="inlineStr">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>Haven’t been to Ulta in forever and finally got to see some new products😍
 @Ulta Beauty @Maybelline NY</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H43" t="n">
         <v>8.787878787878787</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I43" t="n">
         <v>8.181818181818182</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.6060606060606061</v>
       </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-02-16</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7471306279571623214</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B44" t="n">
         <v>336</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C44" t="n">
         <v>26</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D44" t="n">
         <v>12</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="inlineStr">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>Current obsessions 💗
 @revlon Skin Lights Bronzer
 @RMS Beauty ReDimension Hydra Powder Blush</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H44" t="n">
         <v>11.30952380952381</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I44" t="n">
         <v>7.738095238095238</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>3.571428571428571</v>
       </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-02-15</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7470667551882612011</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B45" t="n">
         <v>687</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C45" t="n">
         <v>94</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D45" t="n">
         <v>24</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>6</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>My little makeup diary ❤️
 #makeup #makeuptok #beautycontentcreator #makeupfyp</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H45" t="n">
         <v>17.17612809315866</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I45" t="n">
         <v>13.68267831149927</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>3.493449781659388</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L45" t="n">
         <v>0.8733624454148471</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/photo/7469836281720327470</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B46" t="n">
         <v>392</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C46" t="n">
         <v>33</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D46" t="n">
         <v>13</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="inlineStr">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>Love a concealer &amp; red blush makeup look 🫶🏼
 #nofoundationmakeup #concealermakeup #makeup</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H46" t="n">
         <v>11.73469387755102</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I46" t="n">
         <v>8.418367346938775</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>3.316326530612245</v>
       </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-02-11</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7469483553370459438</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B47" t="n">
         <v>380</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C47" t="n">
         <v>42</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D47" t="n">
         <v>19</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>1</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>I consider this my quick glam 💗
 @Tower 28 Beauty concealer
@@ -2544,52 +2860,52 @@
 @REFY cream blush</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H47" t="n">
         <v>16.05263157894737</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I47" t="n">
         <v>11.05263157894737</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>5</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L47" t="n">
         <v>0.2631578947368421</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-02-10</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/photo/7469469287141395755</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B48" t="n">
         <v>377</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C48" t="n">
         <v>46</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D48" t="n">
         <v>6</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>1</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Makeup makes me happy ✨
 @rhode skin
@@ -2598,435 +2914,180 @@
 @Rare Beauty</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H48" t="n">
         <v>13.79310344827586</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I48" t="n">
         <v>12.20159151193634</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>1.591511936339522</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L48" t="n">
         <v>0.2652519893899204</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-02-10</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7468723049596996906</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B49" t="n">
         <v>238</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C49" t="n">
         <v>31</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D49" t="n">
         <v>10</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="inlineStr">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>I’m loving this glow 🫶🏼✨
 @COSRX US @COSRX Official @Caudalie @LaRochePosayUS @La Roche-Posay</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H49" t="n">
         <v>17.22689075630252</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I49" t="n">
         <v>13.02521008403362</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>4.201680672268908</v>
       </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-02-08</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7468092438541012270</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B50" t="n">
         <v>615</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C50" t="n">
         <v>43</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D50" t="n">
         <v>14</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="inlineStr">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>V Day Nails ❤️
 #nails #nailstransition #valentinesdaynails #heartnails #naildesigns</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H50" t="n">
         <v>9.268292682926829</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I50" t="n">
         <v>6.991869918699186</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>2.276422764227642</v>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-02-06</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@an22drea/video/7468017682789616942</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B51" t="n">
         <v>347</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C51" t="n">
         <v>32</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D51" t="n">
         <v>10</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>2</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Getting ready for work at 6am now so this is my quick makeup look 🫶🏼
 #makeup #morninggrwm #grwmmakeup</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H51" t="n">
         <v>12.10374639769452</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I51" t="n">
         <v>9.221902017291066</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>2.881844380403458</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L51" t="n">
         <v>0.5763688760806917</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-02-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@an22drea/video/7466995302990597422</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>453</v>
-      </c>
-      <c r="C46" t="n">
-        <v>25</v>
-      </c>
-      <c r="D46" t="n">
-        <v>4</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Using these eyelash clusters is my favorite thing now 🫶🏼
-#eyelashes #eyelashclusters #individuallashes</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>6.401766004415011</v>
-      </c>
-      <c r="I46" t="n">
-        <v>5.518763796909492</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.8830022075055187</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.2207505518763797</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>2025-02-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@an22drea/video/7466586236661058858</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>514</v>
-      </c>
-      <c r="C47" t="n">
-        <v>82</v>
-      </c>
-      <c r="D47" t="n">
-        <v>34</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Doing my makeup to go nowhere 🎀
-#makeup #makeuptherapy #girlythings #girlyaesthetic</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>22.56809338521401</v>
-      </c>
-      <c r="I47" t="n">
-        <v>15.95330739299611</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>6.614785992217899</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.3891050583657588</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@an22drea/video/7466523045210115374</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>393</v>
-      </c>
-      <c r="C48" t="n">
-        <v>29</v>
-      </c>
-      <c r="D48" t="n">
-        <v>9</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Morning skincare 🌞🧴
-@Rael @Vaseline @Mediheal Us @LaRochePosayUS @Beauty of Joseon</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>9.669211195928753</v>
-      </c>
-      <c r="I48" t="n">
-        <v>7.37913486005089</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>2.290076335877862</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@an22drea/video/7465828631063989550</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>708</v>
-      </c>
-      <c r="C49" t="n">
-        <v>27</v>
-      </c>
-      <c r="D49" t="n">
-        <v>15</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>3</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>omg I ran to Amazon after @Chelsea Thompson recommended these lashes! Just what I was looking for 😍🙌🏼</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>5.932203389830509</v>
-      </c>
-      <c r="I49" t="n">
-        <v>3.813559322033898</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>2.11864406779661</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.423728813559322</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2025-01-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@an22drea/video/7465410325458832686</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>402</v>
-      </c>
-      <c r="C50" t="n">
-        <v>42</v>
-      </c>
-      <c r="D50" t="n">
-        <v>14</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>I’m in love with this lip combo ✨
-@NYX Professional Makeup “Nude Truffle”
-@essence cosmetics “Gold Dust”</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>13.93034825870647</v>
-      </c>
-      <c r="I50" t="n">
-        <v>10.44776119402985</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>3.482587064676617</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2025-01-30</t>
         </is>
       </c>
     </row>
